--- a/Datasets_Before_Cleaning.xlsx
+++ b/Datasets_Before_Cleaning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsiitac-my.sharepoint.com/personal/sundaresan_20230983_iit_ac_lk/Documents/Desktop/Project life cycle/Can consider/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsiitac-my.sharepoint.com/personal/sundaresan_20230983_iit_ac_lk/Documents/Desktop/Project life cycle/Domestic Banking Units/Domestic-Banking-Unit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{55D8742A-110E-4F8E-90E1-860DA98E5062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{150BB84E-C2EA-40EE-979D-C28E22CEEAF8}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{55D8742A-110E-4F8E-90E1-860DA98E5062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2056C2D4-626A-4F75-A886-BDF86D679D0F}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" tabRatio="844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="3132" windowWidth="17280" windowHeight="8964" tabRatio="844" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="3" r:id="rId1"/>
@@ -311,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,12 +378,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -393,6 +387,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,10 +701,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:T354"/>
+  <dimension ref="A1:V354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,7 +714,7 @@
     <col min="19" max="19" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -739,7 +740,7 @@
       <c r="S1" s="23"/>
       <c r="T1" s="24"/>
     </row>
-    <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="17" t="s">
         <v>2</v>
@@ -783,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -817,7 +818,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
     </row>
-    <row r="4" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -851,7 +852,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="8">
         <v>-1</v>
@@ -911,7 +912,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>35034</v>
       </c>
@@ -964,7 +965,7 @@
         <v>57611.330171000001</v>
       </c>
       <c r="R6" s="4">
-        <v>335513.58747399994</v>
+        <v>335513.587474</v>
       </c>
       <c r="S6" s="5">
         <v>196.56479005240664</v>
@@ -972,8 +973,10 @@
       <c r="T6" s="5">
         <v>81.941003934965295</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>35065</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>83.582318403184544</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>35096</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>82.515040516829188</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>35125</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>82.621743238197823</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>35156</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>80.460572392331599</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>35186</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>81.356957378053139</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>35217</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>82.269624129570204</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>35247</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>82.965797283639475</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>35278</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>84.607784153612982</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>35309</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>84.496547069443452</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>35339</v>
       </c>
@@ -22551,8 +22554,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
@@ -22570,6 +22571,8 @@
     <mergeCell ref="R2:R4"/>
     <mergeCell ref="S2:S4"/>
     <mergeCell ref="T2:T4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22579,8 +22582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0F82DB-FDA4-4B25-B685-B05D702B01DB}">
   <dimension ref="A1:P354"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22593,23 +22596,23 @@
       <c r="A1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -22648,22 +22651,22 @@
         <v>25</v>
       </c>
       <c r="D3" s="27"/>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="31" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="17" t="s">
@@ -22692,12 +22695,12 @@
       <c r="D4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
@@ -40676,10 +40679,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
@@ -40696,6 +40695,10 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
